--- a/biology/Médecine/Tédizolide/Tédizolide.xlsx
+++ b/biology/Médecine/Tédizolide/Tédizolide.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>T%C3%A9dizolide</t>
+          <t>Tédizolide</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le tédizolide est un antibiotique de la classe des oxazolidinones.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>T%C3%A9dizolide</t>
+          <t>Tédizolide</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Spectre</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son spectre est essentiellement dirigé contre les bactéries Gram positif, dont le staphylocoque doré. En particulier, il est actif contre des souches résistantes à la méticilline, la vancomycine et même au linézolide[2]. Son spectre est toutefois proche de ce dernier[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son spectre est essentiellement dirigé contre les bactéries Gram positif, dont le staphylocoque doré. En particulier, il est actif contre des souches résistantes à la méticilline, la vancomycine et même au linézolide. Son spectre est toutefois proche de ce dernier.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>T%C3%A9dizolide</t>
+          <t>Tédizolide</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Métabolisme</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il existe sous forme de prodrogue phosphate sur la fonction alcool qui est rapidement métabolisée par les phophatases pour régénérer le tédizolide[4]. Il est bien absorbé par voie orale et son excrétion est essentiellement fécale[5]. Les doses n'ont pas besoin d'être modifiées en cas d'insuffisance rénale ou hépatique[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il existe sous forme de prodrogue phosphate sur la fonction alcool qui est rapidement métabolisée par les phophatases pour régénérer le tédizolide. Il est bien absorbé par voie orale et son excrétion est essentiellement fécale. Les doses n'ont pas besoin d'être modifiées en cas d'insuffisance rénale ou hépatique.
 </t>
         </is>
       </c>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>T%C3%A9dizolide</t>
+          <t>Tédizolide</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,9 +590,11 @@
           <t>Efficacité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle est comparable à celle du linézolide dans les infections de la peau, que cela soit par voie orale[7] ou par voie veineuse, suivie par un traitement par voie orale[8], tout en restant mieux toléré[9].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est comparable à celle du linézolide dans les infections de la peau, que cela soit par voie orale ou par voie veineuse, suivie par un traitement par voie orale, tout en restant mieux toléré.
 </t>
         </is>
       </c>
